--- a/Assets/StreamingAssets/DataDefine.xlsx
+++ b/Assets/StreamingAssets/DataDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23565" windowHeight="9960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -1537,8 +1537,8 @@
   <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1709,6 +1709,9 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
       <c r="E4" s="2">
         <v>5</v>
       </c>
@@ -1755,6 +1758,9 @@
       </c>
       <c r="C5" s="2">
         <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
